--- a/data/trans_orig/P15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C79FE8E-80F1-44C8-84A6-1E4AF0FA8D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4172541A-473A-4211-BA73-86E1014C4470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CFD3CED3-C63E-445E-B75F-453687C391BD}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF51F911-5DBF-4D6C-A5DA-8D0151290688}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,775 +77,799 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>4,68%</t>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
   </si>
   <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B76293-D87E-4635-8C4E-FBA5CDBB53C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E18739-C3AC-43B6-A644-2300D35AC18C}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1924,7 +1948,7 @@
         <v>6105</v>
       </c>
       <c r="N14" s="7">
-        <v>6237293</v>
+        <v>6237294</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1975,7 +1999,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2008,7 +2032,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B17E53FF-9B90-4D7E-AEAE-D69E024F432B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED44DD02-6F2E-42B0-8000-2F9F304A7A62}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2135,10 +2159,10 @@
         <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="7">
         <v>107</v>
@@ -2147,10 +2171,10 @@
         <v>112937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>93</v>
@@ -2189,7 +2213,7 @@
         <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="H5" s="7">
         <v>1140</v>
@@ -2198,13 +2222,13 @@
         <v>1224859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>1977</v>
@@ -2478,7 +2502,7 @@
         <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2493,13 +2517,13 @@
         <v>455127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H11" s="7">
         <v>387</v>
@@ -2511,10 +2535,10 @@
         <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
         <v>800</v>
@@ -2523,13 +2547,13 @@
         <v>884983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2597,13 +2621,13 @@
         <v>287019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -2612,13 +2636,13 @@
         <v>257472</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M13" s="7">
         <v>516</v>
@@ -2627,10 +2651,10 @@
         <v>544491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>145</v>
@@ -2678,13 +2702,13 @@
         <v>6429521</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>153</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2759,7 +2783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7DF6B8-561C-4F08-A85D-E186A5695542}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A833A6-AF81-43A7-959F-7B5958BDA32D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2776,7 +2800,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2883,13 +2907,13 @@
         <v>45703</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -2898,13 +2922,13 @@
         <v>74602</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>16</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>112</v>
@@ -2913,13 +2937,13 @@
         <v>120305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>162</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2934,13 +2958,13 @@
         <v>708644</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="H5" s="7">
         <v>829</v>
@@ -2949,13 +2973,13 @@
         <v>920058</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>25</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M5" s="7">
         <v>1542</v>
@@ -2964,13 +2988,13 @@
         <v>1628702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>28</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,13 +3062,13 @@
         <v>121179</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -3053,13 +3077,13 @@
         <v>85845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M7" s="7">
         <v>196</v>
@@ -3068,13 +3092,13 @@
         <v>207024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>172</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3089,13 +3113,13 @@
         <v>1955206</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H8" s="7">
         <v>1827</v>
@@ -3104,13 +3128,13 @@
         <v>1902455</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="M8" s="7">
         <v>3664</v>
@@ -3119,13 +3143,13 @@
         <v>3857661</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3217,13 @@
         <v>30796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -3208,13 +3232,13 @@
         <v>31007</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -3223,13 +3247,13 @@
         <v>61803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>37</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,13 +3268,13 @@
         <v>516090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H11" s="7">
         <v>498</v>
@@ -3259,13 +3283,13 @@
         <v>518133</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>972</v>
@@ -3274,13 +3298,13 @@
         <v>1034223</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,13 +3372,13 @@
         <v>197679</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -3363,10 +3387,10 @@
         <v>191453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>203</v>
@@ -3378,7 +3402,7 @@
         <v>389132</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>204</v>
@@ -3414,13 +3438,13 @@
         <v>3340647</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>62</v>
+        <v>209</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>166</v>
+        <v>211</v>
       </c>
       <c r="M14" s="7">
         <v>6178</v>
@@ -3429,13 +3453,13 @@
         <v>6520586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,7 +3534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DBBD892-DE61-4B21-91E2-7376710D0B0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0FAD17-BA24-4D84-A378-4D5139199E1A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3527,7 +3551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3634,13 +3658,13 @@
         <v>36251</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H4" s="7">
         <v>157</v>
@@ -3649,13 +3673,13 @@
         <v>86390</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M4" s="7">
         <v>210</v>
@@ -3664,13 +3688,13 @@
         <v>122640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3685,13 +3709,13 @@
         <v>505383</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H5" s="7">
         <v>1270</v>
@@ -3700,13 +3724,13 @@
         <v>749563</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>1908</v>
@@ -3715,13 +3739,13 @@
         <v>1254946</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3789,13 +3813,13 @@
         <v>133185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -3804,13 +3828,13 @@
         <v>110864</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>272</v>
@@ -3819,13 +3843,13 @@
         <v>244049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3843,25 +3867,25 @@
         <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>2774</v>
       </c>
       <c r="I8" s="7">
-        <v>2138656</v>
+        <v>2138657</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>4641</v>
@@ -3870,13 +3894,13 @@
         <v>4167494</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,7 +3927,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2249521</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3944,13 +3968,13 @@
         <v>34154</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -3959,13 +3983,13 @@
         <v>33616</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -3974,10 +3998,10 @@
         <v>67770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>251</v>
+        <v>183</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>252</v>
@@ -3995,13 +4019,13 @@
         <v>638885</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H11" s="7">
         <v>951</v>
@@ -4010,13 +4034,13 @@
         <v>680270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>183</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>1599</v>
@@ -4025,13 +4049,13 @@
         <v>1319156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4099,13 +4123,13 @@
         <v>203590</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>263</v>
       </c>
       <c r="H13" s="7">
         <v>357</v>
@@ -4114,13 +4138,13 @@
         <v>230869</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>265</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M13" s="7">
         <v>568</v>
@@ -4132,10 +4156,10 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>267</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,16 +4171,16 @@
         <v>3153</v>
       </c>
       <c r="D14" s="7">
-        <v>3173105</v>
+        <v>3173104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>4995</v>
@@ -4165,28 +4189,28 @@
         <v>3568491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>8148</v>
       </c>
       <c r="N14" s="7">
-        <v>6741596</v>
+        <v>6741595</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4222,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3376694</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4228,7 +4252,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7176054</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/P15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4172541A-473A-4211-BA73-86E1014C4470}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5245805C-D48B-4241-87CD-9ADB81AE2AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EF51F911-5DBF-4D6C-A5DA-8D0151290688}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12104154-D1C8-45BD-8075-7D06BC8630C9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,751 +77,775 @@
     <t>5,46%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>4,92%</t>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
   </si>
   <si>
     <t>6,88%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
   </si>
   <si>
     <t>93,12%</t>
   </si>
   <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,6%</t>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
   </si>
   <si>
     <t>7,26%</t>
   </si>
   <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>92,74%</t>
   </si>
   <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,5%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>3,75%</t>
   </si>
   <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
   </si>
   <si>
     <t>6,03%</t>
@@ -1281,7 +1305,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E18739-C3AC-43B6-A644-2300D35AC18C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A7CB18-F2D9-482F-982E-A1E468A36B41}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1608,7 +1632,7 @@
         <v>1508</v>
       </c>
       <c r="D8" s="7">
-        <v>1547781</v>
+        <v>1547782</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1659,7 +1683,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1748,10 +1772,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,13 +1790,13 @@
         <v>510315</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>430</v>
@@ -1781,13 +1805,13 @@
         <v>453044</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>919</v>
@@ -1796,13 +1820,13 @@
         <v>963358</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,13 +1894,13 @@
         <v>243056</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -1885,13 +1909,13 @@
         <v>175391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -1900,13 +1924,13 @@
         <v>418447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1918,16 +1942,16 @@
         <v>2977</v>
       </c>
       <c r="D14" s="7">
-        <v>3033488</v>
+        <v>3033487</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>25</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>3128</v>
@@ -1936,13 +1960,13 @@
         <v>3203807</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>6105</v>
@@ -1951,13 +1975,13 @@
         <v>6237294</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,7 +1993,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2013,7 +2037,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2032,7 +2056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED44DD02-6F2E-42B0-8000-2F9F304A7A62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29614C0-2F66-409A-8175-7C191213B6D3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2049,7 +2073,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2156,13 +2180,13 @@
         <v>76740</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H4" s="7">
         <v>107</v>
@@ -2171,13 +2195,13 @@
         <v>112937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>89</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -2186,13 +2210,13 @@
         <v>189677</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,13 +2231,13 @@
         <v>897903</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H5" s="7">
         <v>1140</v>
@@ -2222,13 +2246,13 @@
         <v>1224859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
       <c r="M5" s="7">
         <v>1977</v>
@@ -2237,13 +2261,13 @@
         <v>2122763</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,13 +2335,13 @@
         <v>184225</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>109</v>
@@ -2326,13 +2350,13 @@
         <v>115761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>109</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>288</v>
@@ -2341,13 +2365,13 @@
         <v>299985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2362,13 +2386,13 @@
         <v>1779732</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="H8" s="7">
         <v>1526</v>
@@ -2377,13 +2401,13 @@
         <v>1642042</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>21</v>
       </c>
       <c r="M8" s="7">
         <v>3203</v>
@@ -2392,13 +2416,13 @@
         <v>3421775</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2466,13 +2490,13 @@
         <v>26054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -2484,10 +2508,10 @@
         <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -2496,13 +2520,13 @@
         <v>54829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2517,13 +2541,13 @@
         <v>455127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="H11" s="7">
         <v>387</v>
@@ -2532,13 +2556,13 @@
         <v>429856</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M11" s="7">
         <v>800</v>
@@ -2547,13 +2571,13 @@
         <v>884983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2621,13 +2645,13 @@
         <v>287019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -2636,13 +2660,13 @@
         <v>257472</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>516</v>
@@ -2651,13 +2675,13 @@
         <v>544491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2696,13 @@
         <v>3132763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H14" s="7">
         <v>3053</v>
@@ -2687,13 +2711,13 @@
         <v>3296758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>5980</v>
@@ -2702,13 +2726,13 @@
         <v>6429521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,7 +2788,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -2783,7 +2807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A833A6-AF81-43A7-959F-7B5958BDA32D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33BC35B-701E-48E0-B499-1EA05DD6131A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2800,7 +2824,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2907,13 +2931,13 @@
         <v>45703</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -2922,13 +2946,13 @@
         <v>74602</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M4" s="7">
         <v>112</v>
@@ -2937,10 +2961,10 @@
         <v>120305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>19</v>
+        <v>158</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>160</v>
@@ -2988,13 +3012,13 @@
         <v>1628702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3062,13 +3086,13 @@
         <v>121179</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -3077,13 +3101,13 @@
         <v>85845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M7" s="7">
         <v>196</v>
@@ -3092,13 +3116,13 @@
         <v>207024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3113,13 +3137,13 @@
         <v>1955206</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>1827</v>
@@ -3128,13 +3152,13 @@
         <v>1902455</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>3664</v>
@@ -3143,13 +3167,13 @@
         <v>3857661</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>186</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3217,13 +3241,13 @@
         <v>30796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -3232,13 +3256,13 @@
         <v>31007</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -3247,13 +3271,13 @@
         <v>61803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>37</v>
+        <v>194</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3268,13 +3292,13 @@
         <v>516090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="H11" s="7">
         <v>498</v>
@@ -3283,13 +3307,13 @@
         <v>518133</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
         <v>972</v>
@@ -3298,13 +3322,13 @@
         <v>1034223</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>45</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3372,13 +3396,13 @@
         <v>197679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -3387,13 +3411,13 @@
         <v>191453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="M13" s="7">
         <v>363</v>
@@ -3402,13 +3426,13 @@
         <v>389132</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3423,13 +3447,13 @@
         <v>3179939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="H14" s="7">
         <v>3154</v>
@@ -3438,13 +3462,13 @@
         <v>3340647</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="M14" s="7">
         <v>6178</v>
@@ -3453,13 +3477,13 @@
         <v>6520586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3515,7 +3539,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3534,7 +3558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0FAD17-BA24-4D84-A378-4D5139199E1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2484A30A-0C8E-412A-995D-86D18B36D970}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3551,7 +3575,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3658,13 +3682,13 @@
         <v>36251</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>157</v>
@@ -3673,13 +3697,13 @@
         <v>86390</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>210</v>
@@ -3688,13 +3712,13 @@
         <v>122640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3733,13 @@
         <v>505383</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>1270</v>
@@ -3724,13 +3748,13 @@
         <v>749563</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M5" s="7">
         <v>1908</v>
@@ -3739,13 +3763,13 @@
         <v>1254946</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,13 +3837,13 @@
         <v>133185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>231</v>
+        <v>86</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -3828,13 +3852,13 @@
         <v>110864</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="M7" s="7">
         <v>272</v>
@@ -3843,13 +3867,13 @@
         <v>244049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>70</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3888,13 @@
         <v>2028837</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>96</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>247</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="H8" s="7">
         <v>2774</v>
@@ -3879,13 +3903,13 @@
         <v>2138657</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="M8" s="7">
         <v>4641</v>
@@ -3894,13 +3918,13 @@
         <v>4167494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3968,13 +3992,13 @@
         <v>34154</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -3983,13 +4007,13 @@
         <v>33616</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -3998,13 +4022,13 @@
         <v>67770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,13 +4043,13 @@
         <v>638885</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="H11" s="7">
         <v>951</v>
@@ -4034,13 +4058,13 @@
         <v>680270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="M11" s="7">
         <v>1599</v>
@@ -4049,13 +4073,13 @@
         <v>1319156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>192</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4147,13 @@
         <v>203590</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>357</v>
@@ -4138,13 +4162,13 @@
         <v>230869</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>568</v>
@@ -4156,10 +4180,10 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4198,13 @@
         <v>3173104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="H14" s="7">
         <v>4995</v>
@@ -4189,13 +4213,13 @@
         <v>3568491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="M14" s="7">
         <v>8148</v>
@@ -4207,10 +4231,10 @@
         <v>24</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4266,7 +4290,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5245805C-D48B-4241-87CD-9ADB81AE2AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FCFF45C-FF94-48C5-843E-68039CCEE53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{12104154-D1C8-45BD-8075-7D06BC8630C9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9981BAD7-6276-4EF2-AD04-46E87A09B0FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="269">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,829 +71,781 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>4,8%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
   </si>
   <si>
     <t>7,42%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>95,78%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>87,87%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
   </si>
   <si>
     <t>92,46%</t>
   </si>
   <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>94,16%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>96,47%</t>
   </si>
   <si>
     <t>95,29%</t>
   </si>
   <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
     <t>95,11%</t>
   </si>
   <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
+    <t>5,17%</t>
   </si>
   <si>
     <t>6,08%</t>
   </si>
   <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
   </si>
   <si>
     <t>93,97%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
+    <t>94,83%</t>
   </si>
   <si>
     <t>93,92%</t>
   </si>
   <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
   </si>
 </sst>
 </file>
@@ -1305,7 +1257,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A7CB18-F2D9-482F-982E-A1E468A36B41}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C804190-DD1F-4D4F-9161-B6AFDFB16903}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1632,7 +1584,7 @@
         <v>1508</v>
       </c>
       <c r="D8" s="7">
-        <v>1547782</v>
+        <v>1547781</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1683,7 +1635,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693413</v>
+        <v>1693412</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1772,10 +1724,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1790,13 +1742,13 @@
         <v>510315</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>430</v>
@@ -1805,13 +1757,13 @@
         <v>453044</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>919</v>
@@ -1820,13 +1772,13 @@
         <v>963358</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1894,13 +1846,13 @@
         <v>243056</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>169</v>
@@ -1909,13 +1861,13 @@
         <v>175391</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>406</v>
@@ -1924,13 +1876,13 @@
         <v>418447</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1942,16 +1894,16 @@
         <v>2977</v>
       </c>
       <c r="D14" s="7">
-        <v>3033487</v>
+        <v>3033488</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>3128</v>
@@ -1960,28 +1912,28 @@
         <v>3203807</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>6105</v>
       </c>
       <c r="N14" s="7">
-        <v>6237294</v>
+        <v>6237293</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1993,7 +1945,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2023,7 +1975,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2037,7 +1989,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2008,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29614C0-2F66-409A-8175-7C191213B6D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546DD2DC-4ACF-4487-A960-B8485D3FB1E2}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2073,7 +2025,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2180,13 +2132,13 @@
         <v>76740</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H4" s="7">
         <v>107</v>
@@ -2195,13 +2147,13 @@
         <v>112937</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M4" s="7">
         <v>178</v>
@@ -2210,13 +2162,13 @@
         <v>189677</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2231,13 +2183,13 @@
         <v>897903</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="H5" s="7">
         <v>1140</v>
@@ -2246,13 +2198,13 @@
         <v>1224859</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M5" s="7">
         <v>1977</v>
@@ -2261,13 +2213,13 @@
         <v>2122763</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,13 +2287,13 @@
         <v>184225</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H7" s="7">
         <v>109</v>
@@ -2350,13 +2302,13 @@
         <v>115761</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="M7" s="7">
         <v>288</v>
@@ -2365,13 +2317,13 @@
         <v>299985</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2338,13 @@
         <v>1779732</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>1526</v>
@@ -2401,13 +2353,13 @@
         <v>1642042</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>3203</v>
@@ -2416,13 +2368,13 @@
         <v>3421775</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,13 +2442,13 @@
         <v>26054</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -2508,10 +2460,10 @@
         <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M10" s="7">
         <v>50</v>
@@ -2520,13 +2472,13 @@
         <v>54829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,13 +2493,13 @@
         <v>455127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
         <v>387</v>
@@ -2556,13 +2508,13 @@
         <v>429856</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M11" s="7">
         <v>800</v>
@@ -2571,13 +2523,13 @@
         <v>884983</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2645,13 +2597,13 @@
         <v>287019</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="H13" s="7">
         <v>241</v>
@@ -2660,13 +2612,13 @@
         <v>257472</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M13" s="7">
         <v>516</v>
@@ -2675,13 +2627,13 @@
         <v>544491</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2696,13 +2648,13 @@
         <v>3132763</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H14" s="7">
         <v>3053</v>
@@ -2711,13 +2663,13 @@
         <v>3296758</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>5980</v>
@@ -2726,13 +2678,13 @@
         <v>6429521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,7 +2740,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2807,7 +2759,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A33BC35B-701E-48E0-B499-1EA05DD6131A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B95142E-9ED4-4FE8-8CA2-CEFE1972CAB3}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2824,7 +2776,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2931,13 +2883,13 @@
         <v>45703</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -2946,13 +2898,13 @@
         <v>74602</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M4" s="7">
         <v>112</v>
@@ -2961,13 +2913,13 @@
         <v>120305</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2934,13 @@
         <v>708644</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H5" s="7">
         <v>829</v>
@@ -2997,13 +2949,13 @@
         <v>920058</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
         <v>1542</v>
@@ -3012,13 +2964,13 @@
         <v>1628702</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,13 +3038,13 @@
         <v>121179</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>19</v>
       </c>
       <c r="H7" s="7">
         <v>81</v>
@@ -3101,13 +3053,13 @@
         <v>85845</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M7" s="7">
         <v>196</v>
@@ -3116,13 +3068,13 @@
         <v>207024</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3140,10 +3092,10 @@
         <v>179</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H8" s="7">
         <v>1827</v>
@@ -3152,13 +3104,13 @@
         <v>1902455</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M8" s="7">
         <v>3664</v>
@@ -3167,13 +3119,13 @@
         <v>3857661</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,13 +3193,13 @@
         <v>30796</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -3256,13 +3208,13 @@
         <v>31007</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
         <v>55</v>
@@ -3271,13 +3223,13 @@
         <v>61803</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3244,13 @@
         <v>516090</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H11" s="7">
         <v>498</v>
@@ -3307,13 +3259,13 @@
         <v>518133</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>120</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>972</v>
@@ -3322,13 +3274,13 @@
         <v>1034223</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3348,13 @@
         <v>197679</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>172</v>
@@ -3411,13 +3363,13 @@
         <v>191453</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>157</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="M13" s="7">
         <v>363</v>
@@ -3426,13 +3378,13 @@
         <v>389132</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3447,13 +3399,13 @@
         <v>3179939</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="H14" s="7">
         <v>3154</v>
@@ -3462,13 +3414,13 @@
         <v>3340647</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
       <c r="M14" s="7">
         <v>6178</v>
@@ -3477,13 +3429,13 @@
         <v>6520586</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3539,7 +3491,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3558,7 +3510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2484A30A-0C8E-412A-995D-86D18B36D970}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD585A1C-B648-4F96-AD2D-1BCCA8C58197}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3575,7 +3527,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3682,13 +3634,13 @@
         <v>36251</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H4" s="7">
         <v>157</v>
@@ -3697,13 +3649,13 @@
         <v>86390</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="M4" s="7">
         <v>210</v>
@@ -3712,13 +3664,13 @@
         <v>122640</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,13 +3685,13 @@
         <v>505383</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="H5" s="7">
         <v>1270</v>
@@ -3748,13 +3700,13 @@
         <v>749563</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="M5" s="7">
         <v>1908</v>
@@ -3763,13 +3715,13 @@
         <v>1254946</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,13 +3789,13 @@
         <v>133185</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>86</v>
+        <v>229</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
@@ -3852,13 +3804,13 @@
         <v>110864</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>272</v>
@@ -3867,13 +3819,13 @@
         <v>244049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,28 +3840,28 @@
         <v>2028837</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>96</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>2774</v>
       </c>
       <c r="I8" s="7">
-        <v>2138657</v>
+        <v>2138656</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>4641</v>
@@ -3918,13 +3870,13 @@
         <v>4167494</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3951,7 +3903,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249521</v>
+        <v>2249520</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3992,13 +3944,13 @@
         <v>34154</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>255</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -4007,13 +3959,13 @@
         <v>33616</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -4022,13 +3974,13 @@
         <v>67770</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4043,13 +3995,13 @@
         <v>638885</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>262</v>
+        <v>211</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>48</v>
+        <v>253</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H11" s="7">
         <v>951</v>
@@ -4058,13 +4010,13 @@
         <v>680270</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>265</v>
+        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>1599</v>
@@ -4073,13 +4025,13 @@
         <v>1319156</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,13 +4099,13 @@
         <v>203590</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>357</v>
@@ -4162,13 +4114,13 @@
         <v>230869</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>176</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M13" s="7">
         <v>568</v>
@@ -4180,10 +4132,10 @@
         <v>14</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4195,16 +4147,16 @@
         <v>3153</v>
       </c>
       <c r="D14" s="7">
-        <v>3173104</v>
+        <v>3173105</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="H14" s="7">
         <v>4995</v>
@@ -4213,28 +4165,28 @@
         <v>3568491</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>182</v>
       </c>
       <c r="M14" s="7">
         <v>8148</v>
       </c>
       <c r="N14" s="7">
-        <v>6741595</v>
+        <v>6741596</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>284</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,7 +4198,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376694</v>
+        <v>3376695</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4276,7 +4228,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176054</v>
+        <v>7176055</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4290,7 +4242,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P15-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P15-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FCFF45C-FF94-48C5-843E-68039CCEE53C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C20A30EF-3CAA-4358-BD3D-A3300CF01E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9981BAD7-6276-4EF2-AD04-46E87A09B0FC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6A3CCA08-FE6B-4118-B011-5061675FC914}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="271">
   <si>
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -680,172 +680,178 @@
     <t>Población que ha tenido un accidente en el último año que le ha causado heridas o lesiones suficientes para limitar su actividad normal y/o para necesitar asistencia sanitaria en 2023 (Tasa respuesta: 99,97%)</t>
   </si>
   <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>87,87%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,82%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>94,88%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>96,47%</t>
   </si>
   <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>96,14%</t>
   </si>
   <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C804190-DD1F-4D4F-9161-B6AFDFB16903}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7957A67C-C92C-433E-9251-DA53F353740F}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1459,7 +1465,7 @@
         <v>2194</v>
       </c>
       <c r="N5" s="7">
-        <v>2210955</v>
+        <v>2210954</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1510,7 +1516,7 @@
         <v>2329</v>
       </c>
       <c r="N6" s="7">
-        <v>2346836</v>
+        <v>2346835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1584,7 +1590,7 @@
         <v>1508</v>
       </c>
       <c r="D8" s="7">
-        <v>1547781</v>
+        <v>1547782</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1635,7 +1641,7 @@
         <v>1649</v>
       </c>
       <c r="D9" s="7">
-        <v>1693412</v>
+        <v>1693413</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1894,7 +1900,7 @@
         <v>2977</v>
       </c>
       <c r="D14" s="7">
-        <v>3033488</v>
+        <v>3033487</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>78</v>
@@ -1909,7 +1915,7 @@
         <v>3128</v>
       </c>
       <c r="I14" s="7">
-        <v>3203807</v>
+        <v>3203806</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>81</v>
@@ -1924,7 +1930,7 @@
         <v>6105</v>
       </c>
       <c r="N14" s="7">
-        <v>6237293</v>
+        <v>6237294</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>84</v>
@@ -1945,7 +1951,7 @@
         <v>3214</v>
       </c>
       <c r="D15" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1960,7 +1966,7 @@
         <v>3297</v>
       </c>
       <c r="I15" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1975,7 +1981,7 @@
         <v>6511</v>
       </c>
       <c r="N15" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2008,7 +2014,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{546DD2DC-4ACF-4487-A960-B8485D3FB1E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55087C7-F4CA-4497-ABE8-BB157D7150C9}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2195,7 +2201,7 @@
         <v>1140</v>
       </c>
       <c r="I5" s="7">
-        <v>1224859</v>
+        <v>1224860</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>99</v>
@@ -2246,7 +2252,7 @@
         <v>1247</v>
       </c>
       <c r="I6" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2520,7 +2526,7 @@
         <v>800</v>
       </c>
       <c r="N11" s="7">
-        <v>884983</v>
+        <v>884984</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>135</v>
@@ -2571,7 +2577,7 @@
         <v>850</v>
       </c>
       <c r="N12" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2759,7 +2765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B95142E-9ED4-4FE8-8CA2-CEFE1972CAB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D56B2E3C-9AC5-457E-B398-D2AE59707031}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3271,7 +3277,7 @@
         <v>972</v>
       </c>
       <c r="N11" s="7">
-        <v>1034223</v>
+        <v>1034224</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>197</v>
@@ -3322,7 +3328,7 @@
         <v>1027</v>
       </c>
       <c r="N12" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3510,7 +3516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD585A1C-B648-4F96-AD2D-1BCCA8C58197}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C80139-0543-4B9D-B196-019800FC6896}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3631,7 +3637,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="7">
-        <v>36251</v>
+        <v>35606</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>213</v>
@@ -3646,7 +3652,7 @@
         <v>157</v>
       </c>
       <c r="I4" s="7">
-        <v>86390</v>
+        <v>79554</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>216</v>
@@ -3661,16 +3667,16 @@
         <v>210</v>
       </c>
       <c r="N4" s="7">
-        <v>122640</v>
+        <v>115160</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>219</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,46 +3688,46 @@
         <v>638</v>
       </c>
       <c r="D5" s="7">
-        <v>505383</v>
+        <v>479332</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
         <v>1270</v>
       </c>
       <c r="I5" s="7">
-        <v>749563</v>
+        <v>675954</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
         <v>1908</v>
       </c>
       <c r="N5" s="7">
-        <v>1254946</v>
+        <v>1155286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3733,7 +3739,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3748,7 +3754,7 @@
         <v>1427</v>
       </c>
       <c r="I6" s="7">
-        <v>835953</v>
+        <v>755508</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3763,7 +3769,7 @@
         <v>2118</v>
       </c>
       <c r="N6" s="7">
-        <v>1377586</v>
+        <v>1270446</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3786,37 +3792,37 @@
         <v>125</v>
       </c>
       <c r="D7" s="7">
-        <v>133185</v>
+        <v>130042</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H7" s="7">
         <v>147</v>
       </c>
       <c r="I7" s="7">
-        <v>110864</v>
+        <v>101957</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>232</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>272</v>
       </c>
       <c r="N7" s="7">
-        <v>244049</v>
+        <v>231999</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>235</v>
@@ -3825,7 +3831,7 @@
         <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3837,46 +3843,46 @@
         <v>1867</v>
       </c>
       <c r="D8" s="7">
-        <v>2028837</v>
+        <v>2160285</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>2774</v>
       </c>
       <c r="I8" s="7">
-        <v>2138656</v>
+        <v>2135866</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>197</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="M8" s="7">
         <v>4641</v>
       </c>
       <c r="N8" s="7">
-        <v>4167494</v>
+        <v>4296151</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>245</v>
+        <v>164</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3888,7 +3894,7 @@
         <v>1992</v>
       </c>
       <c r="D9" s="7">
-        <v>2162022</v>
+        <v>2290327</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3903,7 +3909,7 @@
         <v>2921</v>
       </c>
       <c r="I9" s="7">
-        <v>2249520</v>
+        <v>2237823</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3918,7 +3924,7 @@
         <v>4913</v>
       </c>
       <c r="N9" s="7">
-        <v>4411543</v>
+        <v>4528150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3941,46 +3947,46 @@
         <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>34154</v>
+        <v>33226</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>33616</v>
+        <v>30866</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>249</v>
+        <v>157</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>175</v>
+        <v>246</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
       </c>
       <c r="N10" s="7">
-        <v>67770</v>
+        <v>64092</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,37 +3998,37 @@
         <v>648</v>
       </c>
       <c r="D11" s="7">
-        <v>638885</v>
+        <v>613397</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H11" s="7">
         <v>951</v>
       </c>
       <c r="I11" s="7">
-        <v>680270</v>
+        <v>629597</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M11" s="7">
         <v>1599</v>
       </c>
       <c r="N11" s="7">
-        <v>1319156</v>
+        <v>1242994</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>256</v>
@@ -4043,7 +4049,7 @@
         <v>681</v>
       </c>
       <c r="D12" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4058,7 +4064,7 @@
         <v>1004</v>
       </c>
       <c r="I12" s="7">
-        <v>713886</v>
+        <v>660463</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4073,7 +4079,7 @@
         <v>1685</v>
       </c>
       <c r="N12" s="7">
-        <v>1386926</v>
+        <v>1307086</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4096,7 +4102,7 @@
         <v>211</v>
       </c>
       <c r="D13" s="7">
-        <v>203590</v>
+        <v>198874</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>259</v>
@@ -4105,37 +4111,37 @@
         <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>357</v>
       </c>
       <c r="I13" s="7">
-        <v>230869</v>
+        <v>212377</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>262</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>262</v>
+        <v>38</v>
       </c>
       <c r="M13" s="7">
         <v>568</v>
       </c>
       <c r="N13" s="7">
-        <v>434459</v>
+        <v>411252</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>263</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4147,46 +4153,46 @@
         <v>3153</v>
       </c>
       <c r="D14" s="7">
-        <v>3173105</v>
+        <v>3253015</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H14" s="7">
         <v>4995</v>
       </c>
       <c r="I14" s="7">
-        <v>3568491</v>
+        <v>3441417</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>267</v>
+        <v>47</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>182</v>
+        <v>268</v>
       </c>
       <c r="M14" s="7">
         <v>8148</v>
       </c>
       <c r="N14" s="7">
-        <v>6741596</v>
+        <v>6694431</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>21</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,7 +4204,7 @@
         <v>3364</v>
       </c>
       <c r="D15" s="7">
-        <v>3376695</v>
+        <v>3451889</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4213,7 +4219,7 @@
         <v>5352</v>
       </c>
       <c r="I15" s="7">
-        <v>3799360</v>
+        <v>3653794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4228,7 +4234,7 @@
         <v>8716</v>
       </c>
       <c r="N15" s="7">
-        <v>7176055</v>
+        <v>7105683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
